--- a/dynamics/src/dynamics/xlsx/tested_state_original_design_case2.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design_case2.xlsx
@@ -446,10 +446,10 @@
         <v>23.964</v>
       </c>
       <c r="H1" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I1" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="2">
@@ -477,10 +477,10 @@
         <v>23.964</v>
       </c>
       <c r="H2" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I2" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="3">
@@ -508,10 +508,10 @@
         <v>23.964</v>
       </c>
       <c r="H3" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I3" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="4">
@@ -539,10 +539,10 @@
         <v>23.964</v>
       </c>
       <c r="H4" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I4" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="5">
@@ -570,10 +570,10 @@
         <v>23.964</v>
       </c>
       <c r="H5" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I5" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="6">
@@ -601,10 +601,10 @@
         <v>23.964</v>
       </c>
       <c r="H6" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I6" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="7">
@@ -632,10 +632,10 @@
         <v>23.964</v>
       </c>
       <c r="H7" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I7" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="8">
@@ -663,10 +663,10 @@
         <v>23.964</v>
       </c>
       <c r="H8" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I8" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="9">
@@ -694,10 +694,10 @@
         <v>23.964</v>
       </c>
       <c r="H9" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I9" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="10">
@@ -725,10 +725,10 @@
         <v>23.964</v>
       </c>
       <c r="H10" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I10" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="11">
@@ -756,10 +756,10 @@
         <v>23.964</v>
       </c>
       <c r="H11" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I11" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="12">
@@ -787,10 +787,10 @@
         <v>23.964</v>
       </c>
       <c r="H12" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I12" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="13">
@@ -818,10 +818,10 @@
         <v>23.964</v>
       </c>
       <c r="H13" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I13" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="14">
@@ -849,10 +849,10 @@
         <v>23.964</v>
       </c>
       <c r="H14" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I14" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="15">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>176.3651844588868</v>
@@ -880,10 +880,10 @@
         <v>23.964</v>
       </c>
       <c r="H15" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I15" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="16">
@@ -911,10 +911,10 @@
         <v>23.964</v>
       </c>
       <c r="H16" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I16" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="17">
@@ -942,10 +942,10 @@
         <v>23.964</v>
       </c>
       <c r="H17" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I17" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="18">
@@ -973,10 +973,10 @@
         <v>23.964</v>
       </c>
       <c r="H18" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I18" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="19">
@@ -1004,10 +1004,10 @@
         <v>23.964</v>
       </c>
       <c r="H19" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I19" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="20">
@@ -1035,10 +1035,10 @@
         <v>23.964</v>
       </c>
       <c r="H20" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I20" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="21">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>328.1082605273225</v>
@@ -1066,10 +1066,10 @@
         <v>23.964</v>
       </c>
       <c r="H21" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I21" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="22">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>714.3960623361766</v>
@@ -1097,10 +1097,10 @@
         <v>23.964</v>
       </c>
       <c r="H22" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I22" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>252.9776295074435</v>
@@ -1128,10 +1128,10 @@
         <v>23.964</v>
       </c>
       <c r="H23" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I23" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="24">
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>710.8878589930479</v>
@@ -1159,10 +1159,10 @@
         <v>23.964</v>
       </c>
       <c r="H24" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I24" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="25">
@@ -1190,10 +1190,10 @@
         <v>23.964</v>
       </c>
       <c r="H25" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I25" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="26">
@@ -1221,10 +1221,10 @@
         <v>23.964</v>
       </c>
       <c r="H26" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I26" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="27">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>481.9949231290301</v>
@@ -1252,10 +1252,10 @@
         <v>23.964</v>
       </c>
       <c r="H27" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I27" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="28">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>1053.149130220529</v>
@@ -1283,10 +1283,10 @@
         <v>23.964</v>
       </c>
       <c r="H28" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I28" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="29">
@@ -1314,10 +1314,10 @@
         <v>23.964</v>
       </c>
       <c r="H29" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I29" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="30">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
         <v>1035.728958161156</v>
@@ -1345,10 +1345,10 @@
         <v>23.964</v>
       </c>
       <c r="H30" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I30" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="31">
@@ -1376,10 +1376,10 @@
         <v>23.964</v>
       </c>
       <c r="H31" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I31" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="32">
@@ -1407,10 +1407,10 @@
         <v>23.964</v>
       </c>
       <c r="H32" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I32" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="33">
@@ -1438,10 +1438,10 @@
         <v>23.964</v>
       </c>
       <c r="H33" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I33" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="34">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
         <v>1222.999659563553</v>
@@ -1469,10 +1469,10 @@
         <v>23.964</v>
       </c>
       <c r="H34" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I34" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="35">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="n">
         <v>425.7680034249445</v>
@@ -1500,10 +1500,10 @@
         <v>23.964</v>
       </c>
       <c r="H35" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I35" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="36">
@@ -1513,7 +1513,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="n">
         <v>1198.298641575391</v>
@@ -1531,10 +1531,10 @@
         <v>23.964</v>
       </c>
       <c r="H36" t="n">
-        <v>44.7</v>
+        <v>25.3</v>
       </c>
       <c r="I36" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/tested_state_original_design_case2.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design_case2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,13 +431,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>70.82174219076187</v>
+        <v>139.3840749090528</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F1" t="n">
         <v>26.036</v>
@@ -462,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>192.8397557699988</v>
+        <v>414.5390494141789</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F2" t="n">
         <v>26.036</v>
@@ -493,13 +493,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>102.9023211748084</v>
+        <v>125.2643488489878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F3" t="n">
         <v>26.036</v>
@@ -524,13 +524,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>214.3269635970799</v>
+        <v>367.0061185843164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F4" t="n">
         <v>26.036</v>
@@ -548,20 +548,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0-C-10</t>
+          <t>0.5-A-10</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>82.81041196565944</v>
+        <v>159.5855541711678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F5" t="n">
         <v>26.036</v>
@@ -579,20 +579,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0-C-30</t>
+          <t>0.5-A-30</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>228.5374320305897</v>
+        <v>475.8317777903611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F6" t="n">
         <v>26.036</v>
@@ -610,20 +610,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.5-A-10</t>
+          <t>0.5-B-10</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>96.13515754672733</v>
+        <v>144.6409437369407</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F7" t="n">
         <v>26.036</v>
@@ -641,20 +641,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.5-A-30</t>
+          <t>0.5-B-30</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>261.3905053521987</v>
+        <v>424.4556792034342</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F8" t="n">
         <v>26.036</v>
@@ -672,20 +672,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.5-B-10</t>
+          <t>1-A-10</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>139.1514201639969</v>
+        <v>180.290437986355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F9" t="n">
         <v>26.036</v>
@@ -703,20 +703,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.5-B-30</t>
+          <t>1-A-30</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>295.6471910798458</v>
+        <v>537.3438803121122</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F10" t="n">
         <v>26.036</v>
@@ -734,20 +734,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.5-C-10</t>
+          <t>1-B-10</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>110.117572673306</v>
+        <v>165.0778722759138</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F11" t="n">
         <v>26.036</v>
@@ -765,20 +765,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.5-C-30</t>
+          <t>1-B-30</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>306.4006239803035</v>
+        <v>484.4947180537995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F12" t="n">
         <v>26.036</v>
@@ -796,20 +796,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1-A-10</t>
+          <t>1.1-A-10</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>122.5522352790247</v>
+        <v>184.4531888715271</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F13" t="n">
         <v>26.036</v>
@@ -827,20 +827,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1-A-30</t>
+          <t>1.1-A-30</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>334.8033755635122</v>
+        <v>549.6470835210055</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F14" t="n">
         <v>26.036</v>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1-B-10</t>
+          <t>1.1-B-10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>176.3651844588868</v>
+        <v>169.1802328329443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F15" t="n">
         <v>26.036</v>
@@ -889,20 +889,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1-B-30</t>
+          <t>1.1-B-30</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>378.9637784732679</v>
+        <v>496.5355733394323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F16" t="n">
         <v>26.036</v>
@@ -920,20 +920,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1-C-10</t>
+          <t>3-A-10</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>138.4065562251066</v>
+        <v>264.1581374446722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F17" t="n">
         <v>26.036</v>
@@ -951,20 +951,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1-C-30</t>
+          <t>3-A-30</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>386.7907586526562</v>
+        <v>785.4795337091788</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F18" t="n">
         <v>26.036</v>
@@ -982,20 +982,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3-A-10</t>
+          <t>3-B-10</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>232.9487758086098</v>
+        <v>247.8959334482108</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F19" t="n">
         <v>26.036</v>
@@ -1013,20 +1013,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3-A-30</t>
+          <t>3-B-30</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>641.3008763241133</v>
+        <v>726.1851268378294</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F20" t="n">
         <v>26.036</v>
@@ -1044,20 +1044,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3-B-10</t>
+          <t>5-A-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>328.1082605273225</v>
+        <v>348.5198581214263</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F21" t="n">
         <v>26.036</v>
@@ -1075,20 +1075,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3-B-30</t>
+          <t>5-A-30</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>714.3960623361766</v>
+        <v>1034.84863733484</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F22" t="n">
         <v>26.036</v>
@@ -1106,20 +1106,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3-C-10</t>
+          <t>5-B-10</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>252.9776295074435</v>
+        <v>330.8843809593009</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F23" t="n">
         <v>26.036</v>
@@ -1137,20 +1137,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3-C-30</t>
+          <t>5-B-30</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8878589930479</v>
+        <v>968.7254332588374</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01650865619802579</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F24" t="n">
         <v>26.036</v>
@@ -1168,20 +1168,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5-A-10</t>
+          <t>6-A-10</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>343.8415552358288</v>
+        <v>390.7805850219103</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F25" t="n">
         <v>26.036</v>
@@ -1199,20 +1199,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5-A-30</t>
+          <t>6-A-30</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>949.2745169019869</v>
+        <v>1160.093012485466</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02071574340946317</v>
+        <v>0.01378870056105845</v>
       </c>
       <c r="F26" t="n">
         <v>26.036</v>
@@ -1230,20 +1230,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5-B-10</t>
+          <t>6-B-10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>481.9949231290301</v>
+        <v>372.4052109721124</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F27" t="n">
         <v>26.036</v>
@@ -1261,20 +1261,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5-B-30</t>
+          <t>6-B-30</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>1053.149130220529</v>
+        <v>1090.286427512467</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E28" t="n">
-        <v>0.008352056178274002</v>
+        <v>0.006811749575498305</v>
       </c>
       <c r="F28" t="n">
         <v>26.036</v>
@@ -1286,254 +1286,6 @@
         <v>25.3</v>
       </c>
       <c r="I28" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>5-C-10</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>368.0166157253632</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="F29" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G29" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H29" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I29" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>5-C-30</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1035.728958161156</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="F30" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G30" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>6-A-10</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>399.6321996711864</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="F31" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G31" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H31" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I31" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>6-A-30</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1103.463822858034</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.02071574340946317</v>
-      </c>
-      <c r="F32" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G32" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H32" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>6-B-10</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" t="n">
-        <v>559.0635379518063</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="F33" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G33" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H33" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>6-B-30</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1222.999659563553</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.008352056178274002</v>
-      </c>
-      <c r="F34" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G34" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H34" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>6-C-10</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>4</v>
-      </c>
-      <c r="C35" t="n">
-        <v>425.7680034249445</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="F35" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G35" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H35" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I35" t="n">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>6-C-30</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1198.298641575391</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.01650865619802579</v>
-      </c>
-      <c r="F36" t="n">
-        <v>26.036</v>
-      </c>
-      <c r="G36" t="n">
-        <v>23.964</v>
-      </c>
-      <c r="H36" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="I36" t="n">
         <v>25.3</v>
       </c>
     </row>

--- a/dynamics/src/dynamics/xlsx/tested_state_original_design_case2.xlsx
+++ b/dynamics/src/dynamics/xlsx/tested_state_original_design_case2.xlsx
@@ -431,13 +431,13 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>139.3840749090528</v>
+        <v>203.1131498838785</v>
       </c>
       <c r="D1" t="n">
         <v>1</v>
       </c>
       <c r="E1" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F1" t="n">
         <v>26.036</v>
@@ -462,13 +462,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>414.5390494141789</v>
+        <v>550.5381931187702</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F2" t="n">
         <v>26.036</v>
@@ -555,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.5855541711678</v>
+        <v>241.5503824763378</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F5" t="n">
         <v>26.036</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8317777903611</v>
+        <v>656.9369065019579</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F6" t="n">
         <v>26.036</v>
@@ -679,13 +679,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>180.290437986355</v>
+        <v>280.1178389383568</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F9" t="n">
         <v>26.036</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>537.3438803121122</v>
+        <v>763.3356198851421</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F10" t="n">
         <v>26.036</v>
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>184.4531888715271</v>
+        <v>287.8478638942512</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F13" t="n">
         <v>26.036</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>549.6470835210055</v>
+        <v>784.6153625617814</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F14" t="n">
         <v>26.036</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>264.1581374446722</v>
+        <v>435.0959797767453</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F17" t="n">
         <v>26.036</v>
@@ -955,16 +955,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>785.4795337091788</v>
+        <v>1188.93047341789</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F18" t="n">
         <v>26.036</v>
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>348.5198581214263</v>
+        <v>590.2363174366715</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F21" t="n">
         <v>26.036</v>
@@ -1079,16 +1079,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>1034.84863733484</v>
+        <v>1614.525326950636</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F22" t="n">
         <v>26.036</v>
@@ -1172,16 +1172,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>390.7805850219103</v>
+        <v>667.8098068864975</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F25" t="n">
         <v>26.036</v>
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>1160.093012485466</v>
+        <v>1827.352293190269</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01378870056105845</v>
+        <v>0.02178829349905755</v>
       </c>
       <c r="F26" t="n">
         <v>26.036</v>
